--- a/assets/excel/buku lengkap.xlsx
+++ b/assets/excel/buku lengkap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siperpus\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF4D43-6BB9-4173-9277-AB728AAF0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C35AC6-E7B5-4BBA-BAF9-59E8484B453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,14 +867,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:Z193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1265,10 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1358,16 +1358,16 @@
       <c r="Q2" s="16">
         <v>1</v>
       </c>
-      <c r="T2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="T2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="26"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1417,10 +1417,10 @@
       <c r="Q3" s="16">
         <v>1</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
       <c r="Y3" s="4">
         <v>1</v>
       </c>
@@ -1476,10 +1476,10 @@
       <c r="Q4" s="16">
         <v>1</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
       <c r="Y4" s="4">
         <v>2</v>
       </c>
@@ -1535,10 +1535,10 @@
       <c r="Q5" s="16">
         <v>1</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
       <c r="Y5" s="4">
         <v>3</v>
       </c>
@@ -1594,10 +1594,10 @@
       <c r="Q6" s="16">
         <v>1</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
       <c r="Y6" s="4">
         <v>4</v>
       </c>
@@ -1653,10 +1653,10 @@
       <c r="Q7" s="16">
         <v>1</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
       <c r="Y7" s="4">
         <v>5</v>
       </c>
@@ -1712,10 +1712,10 @@
       <c r="Q8" s="16">
         <v>1</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1765,14 +1765,14 @@
       <c r="Q9" s="16">
         <v>1</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="Y9" s="26" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="Y9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="27"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1822,10 +1822,10 @@
       <c r="Q10" s="16">
         <v>1</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
       <c r="Y10" s="8">
         <v>1</v>
       </c>
@@ -1881,10 +1881,10 @@
       <c r="Q11" s="16">
         <v>1</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
       <c r="Y11" s="8">
         <v>2</v>
       </c>
@@ -1940,10 +1940,10 @@
       <c r="Q12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1993,14 +1993,14 @@
       <c r="Q13" s="4">
         <v>1</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="Y13" s="27" t="s">
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="Y13" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="Z13" s="27"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -2050,10 +2050,10 @@
       <c r="Q14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
       <c r="Y14" s="25">
         <v>1</v>
       </c>
@@ -2109,10 +2109,10 @@
       <c r="Q15" s="4">
         <v>1</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
       <c r="Y15" s="25">
         <v>2</v>
       </c>
@@ -2168,10 +2168,10 @@
       <c r="Q16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
       <c r="Y16" s="25">
         <v>3</v>
       </c>
@@ -2227,10 +2227,10 @@
       <c r="Q17" s="4">
         <v>1</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
       <c r="Y17" s="25">
         <v>4</v>
       </c>
@@ -2286,10 +2286,10 @@
       <c r="Q18" s="17">
         <v>1</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
       <c r="Y18" s="25">
         <v>5</v>
       </c>
@@ -2345,10 +2345,10 @@
       <c r="Q19" s="17">
         <v>1</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
       <c r="Y19" s="25">
         <v>6</v>
       </c>
@@ -2404,10 +2404,10 @@
       <c r="Q20" s="17">
         <v>1</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
       <c r="Y20" s="25">
         <v>7</v>
       </c>
@@ -2463,10 +2463,10 @@
       <c r="Q21" s="17">
         <v>1</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
       <c r="Y21" s="25">
         <v>8</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="Q22" s="17">
         <v>1</v>
       </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2575,10 +2575,10 @@
       <c r="Q23" s="17">
         <v>1</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -2628,10 +2628,10 @@
       <c r="Q24" s="17">
         <v>1</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -2681,10 +2681,10 @@
       <c r="Q25" s="17">
         <v>1</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -2734,10 +2734,10 @@
       <c r="Q26" s="17">
         <v>1</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -2787,10 +2787,10 @@
       <c r="Q27" s="17">
         <v>1</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -2834,10 +2834,10 @@
       <c r="Q28" s="17">
         <v>1</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -2887,10 +2887,10 @@
       <c r="Q29" s="4">
         <v>2</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2940,10 +2940,10 @@
       <c r="Q30" s="4">
         <v>2</v>
       </c>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -2993,10 +2993,10 @@
       <c r="Q31" s="20">
         <v>2</v>
       </c>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
